--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\visualizer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E730C5B-D232-49CA-92CB-98CF2EE13DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D6BA8433-60A4-4B0B-9C2B-004CCC3697F9}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,12 +42,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -82,14 +80,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -101,15 +122,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -151,108 +452,14 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -260,7 +467,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -286,7 +493,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -338,16 +545,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -363,7 +582,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -394,549 +613,734 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C3D63E-7A51-4F22-B31F-AA4D1F0FC8A1}">
-  <dimension ref="A1:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C61" activeCellId="0" sqref="C61:C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="14.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" ht="14.25">
       <c r="A1" s="1">
         <v>340</v>
       </c>
       <c r="B1" s="1">
         <v>142.50963198533731</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2" s="1">
         <v>460</v>
       </c>
       <c r="B2" s="1">
         <v>143.10334541614509</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
       <c r="A3" s="1">
         <v>580</v>
       </c>
       <c r="B3" s="1">
         <v>142.34582194004855</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
       <c r="A4" s="1">
         <v>700</v>
       </c>
       <c r="B4" s="1">
         <v>140.23706155704775</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
       <c r="A5" s="1">
         <v>820</v>
       </c>
       <c r="B5" s="1">
         <v>136.77706426714261</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
       <c r="A6" s="1">
         <v>940</v>
       </c>
       <c r="B6" s="1">
         <v>131.9658300703332</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
       <c r="A7" s="1">
         <v>1060</v>
       </c>
       <c r="B7" s="1">
         <v>125.8033589666195</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
       <c r="A8" s="1">
         <v>1180</v>
       </c>
       <c r="B8" s="1">
         <v>118.28965095600145</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
       <c r="A9" s="1">
         <v>1300</v>
       </c>
       <c r="B9" s="1">
         <v>109.42470603847916</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
       <c r="A11" s="1">
         <v>300</v>
       </c>
       <c r="B11" s="1">
         <v>117.68525829215247</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
       <c r="A12" s="1">
         <v>412.5</v>
       </c>
       <c r="B12" s="1">
         <v>118.26923848793029</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
       <c r="A13" s="1">
         <v>525</v>
       </c>
       <c r="B13" s="1">
         <v>117.66560812099928</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
       <c r="A14" s="1">
         <v>637.5</v>
       </c>
       <c r="B14" s="1">
         <v>115.87436719135945</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
       <c r="A15" s="1">
         <v>750</v>
       </c>
       <c r="B15" s="1">
         <v>112.89551569901076</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
       <c r="A16" s="1">
         <v>862.5</v>
       </c>
       <c r="B16" s="1">
         <v>108.72905364395324</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
       <c r="A17" s="1">
         <v>975</v>
       </c>
       <c r="B17" s="1">
         <v>103.37498102618687</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
       <c r="A18" s="1">
         <v>1087.5</v>
       </c>
       <c r="B18" s="1">
         <v>96.833297845711684</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
       <c r="A19" s="1">
         <v>1200</v>
       </c>
       <c r="B19" s="1">
         <v>89.104004102527654</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
       <c r="A21" s="1">
         <v>270</v>
       </c>
       <c r="B21" s="1">
         <v>97.234238361899173</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
       <c r="A22" s="1">
         <v>378.75</v>
       </c>
       <c r="B22" s="1">
         <v>97.742214790565001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
       <c r="A23" s="1">
         <v>487.5</v>
       </c>
       <c r="B23" s="1">
         <v>97.140435126743967</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
       <c r="A24" s="1">
         <v>596.25</v>
       </c>
       <c r="B24" s="1">
         <v>95.428899370436028</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
       <c r="A25" s="1">
         <v>705</v>
       </c>
       <c r="B25" s="1">
         <v>92.607607521641228</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
       <c r="A26" s="1">
         <v>813.75</v>
       </c>
       <c r="B26" s="1">
         <v>88.676559580359537</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
       <c r="A27" s="1">
         <v>922.5</v>
       </c>
       <c r="B27" s="1">
         <v>83.635755546590971</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
       <c r="A28" s="1">
         <v>1031.25</v>
       </c>
       <c r="B28" s="1">
         <v>77.485195420335529</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
       <c r="A29" s="1">
         <v>1140</v>
       </c>
       <c r="B29" s="1">
         <v>70.224879201593211</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" ht="14.25">
       <c r="A31" s="1">
         <v>240</v>
       </c>
       <c r="B31" s="1">
         <v>76.766245904208475</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
       <c r="A32" s="1">
         <v>335</v>
       </c>
       <c r="B32" s="1">
         <v>78.099932831783264</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
       <c r="A33" s="1">
         <v>430</v>
       </c>
       <c r="B33" s="1">
         <v>78.26374558239408</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
       <c r="A34" s="1">
         <v>525</v>
       </c>
       <c r="B34" s="1">
         <v>77.257684156040895</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
       <c r="A35" s="1">
         <v>620</v>
       </c>
       <c r="B35" s="1">
         <v>75.081748552723724</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
       <c r="A36" s="1">
         <v>715</v>
       </c>
       <c r="B36" s="1">
         <v>71.735938772442566</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
       <c r="A37" s="1">
         <v>810</v>
       </c>
       <c r="B37" s="1">
         <v>67.220254815197421</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
       <c r="A38" s="1">
         <v>905</v>
       </c>
       <c r="B38" s="1">
         <v>61.534696680988276</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
       <c r="A39" s="1">
         <v>1000</v>
       </c>
       <c r="B39" s="1">
         <v>54.679264369815144</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25">
       <c r="A41" s="1">
         <v>200</v>
       </c>
       <c r="B41" s="1">
         <v>56.928463295806537</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
       <c r="A42" s="1">
         <v>283.75</v>
       </c>
       <c r="B42" s="1">
         <v>57.851760627545474</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
       <c r="A43" s="1">
         <v>367.5</v>
       </c>
       <c r="B43" s="1">
         <v>57.964375264073439</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
       <c r="A44" s="1">
         <v>451.25</v>
       </c>
       <c r="B44" s="1">
         <v>57.266307205390405</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
       <c r="A45" s="1">
         <v>535</v>
       </c>
       <c r="B45" s="1">
         <v>55.757556451496399</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
       <c r="A46" s="1">
         <v>618.75</v>
       </c>
       <c r="B46" s="1">
         <v>53.438123002391421</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
       <c r="A47" s="1">
         <v>702.5</v>
       </c>
       <c r="B47" s="1">
         <v>50.308006858075466</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
       <c r="A48" s="1">
         <v>786.25</v>
       </c>
       <c r="B48" s="1">
         <v>46.367208018548524</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
       <c r="A49" s="1">
         <v>870</v>
       </c>
       <c r="B49" s="1">
         <v>41.615726483810597</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" ht="14.25">
       <c r="A51" s="1">
         <v>160</v>
       </c>
       <c r="B51" s="1">
         <v>43.794389340743166</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25">
       <c r="A52" s="1">
         <v>233.75</v>
       </c>
       <c r="B52" s="1">
         <v>43.816660018555432</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25">
       <c r="A53" s="1">
         <v>307.5</v>
       </c>
       <c r="B53" s="1">
         <v>43.399328827449068</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" ht="14.25">
       <c r="A54" s="1">
         <v>381.25</v>
       </c>
       <c r="B54" s="1">
         <v>42.542395767424068</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25">
       <c r="A55" s="1">
         <v>455</v>
       </c>
       <c r="B55" s="1">
         <v>41.245860838480432</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25">
       <c r="A56" s="1">
         <v>528.75</v>
       </c>
       <c r="B56" s="1">
         <v>39.509724040618153</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25">
       <c r="A57" s="1">
         <v>602.5</v>
       </c>
       <c r="B57" s="1">
         <v>37.333985373837244</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25">
       <c r="A58" s="1">
         <v>676.25</v>
       </c>
       <c r="B58" s="1">
         <v>34.718644838137699</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" ht="14.25">
       <c r="A59" s="1">
         <v>750</v>
       </c>
       <c r="B59" s="1">
         <v>31.663702433519521</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" ht="14.25">
       <c r="A61" s="1">
         <v>140</v>
       </c>
       <c r="B61" s="1">
         <v>30.13663723622134</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" ht="14.25">
       <c r="A62" s="1">
         <v>200</v>
       </c>
       <c r="B62" s="1">
         <v>29.694031459502792</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25">
       <c r="A63" s="1">
         <v>260</v>
       </c>
       <c r="B63" s="1">
         <v>29.088739222239496</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" ht="14.25">
       <c r="A64" s="1">
         <v>320</v>
       </c>
       <c r="B64" s="1">
         <v>28.320760524431446</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
       <c r="A65" s="1">
         <v>380</v>
       </c>
       <c r="B65" s="1">
         <v>27.390095366078647</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
       <c r="A66" s="1">
         <v>440</v>
       </c>
       <c r="B66" s="1">
         <v>26.296743747181093</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
       <c r="A67" s="1">
         <v>500</v>
       </c>
       <c r="B67" s="1">
         <v>25.040705667738791</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
       <c r="A68" s="1">
         <v>560</v>
       </c>
       <c r="B68" s="1">
         <v>23.621981127751738</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
       <c r="A69" s="1">
         <v>620</v>
       </c>
       <c r="B69" s="1">
         <v>22.040570127219929</v>
       </c>
+      <c r="C69" s="3">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Book.xlsx
+++ b/Book.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\visualizer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF1592-EED1-4719-AF8B-46B46AAEC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -24,14 +31,8 @@
     <font>
       <b/>
       <i/>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial Cyr"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,52 +66,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,295 +85,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
@@ -613,734 +296,1188 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="100" workbookViewId="0">
-      <selection activeCell="C61" activeCellId="0" sqref="C61:C69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="14.28515625"/>
+    <col min="1" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>340</v>
       </c>
       <c r="B1" s="1">
         <v>142.50963198533731</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>275</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>460</v>
       </c>
       <c r="B2" s="1">
         <v>143.10334541614509</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>299</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>580</v>
       </c>
       <c r="B3" s="1">
         <v>142.34582194004855</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>321</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>700</v>
       </c>
       <c r="B4" s="1">
         <v>140.23706155704775</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>347</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>820</v>
       </c>
       <c r="B5" s="1">
         <v>136.77706426714261</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>382</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>940</v>
       </c>
       <c r="B6" s="1">
         <v>131.9658300703332</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>407</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1060</v>
       </c>
       <c r="B7" s="1">
         <v>125.8033589666195</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>427</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1180</v>
       </c>
       <c r="B8" s="1">
         <v>118.28965095600145</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>453</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1300</v>
       </c>
       <c r="B9" s="1">
         <v>109.42470603847916</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>472</v>
       </c>
     </row>
-    <row r="11" ht="14.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>300</v>
       </c>
       <c r="B11" s="1">
         <v>117.68525829215247</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="12" ht="14.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>412.5</v>
       </c>
       <c r="B12" s="1">
         <v>118.26923848793029</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>221</v>
       </c>
     </row>
-    <row r="13" ht="14.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>525</v>
       </c>
       <c r="B13" s="1">
         <v>117.66560812099928</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="14" ht="14.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>637.5</v>
       </c>
       <c r="B14" s="1">
         <v>115.87436719135945</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>261</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>750</v>
       </c>
       <c r="B15" s="1">
         <v>112.89551569901076</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>288</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>862.5</v>
       </c>
       <c r="B16" s="1">
         <v>108.72905364395324</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="17" ht="14.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>975</v>
       </c>
       <c r="B17" s="1">
         <v>103.37498102618687</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>323</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1087.5</v>
       </c>
       <c r="B18" s="1">
         <v>96.833297845711684</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>341</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1200</v>
       </c>
       <c r="B19" s="1">
         <v>89.104004102527654</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>355</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>270</v>
       </c>
       <c r="B21" s="1">
         <v>97.234238361899173</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>378.75</v>
       </c>
       <c r="B22" s="1">
         <v>97.742214790565001</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>487.5</v>
       </c>
       <c r="B23" s="1">
         <v>97.140435126743967</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="24" ht="14.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>596.25</v>
       </c>
       <c r="B24" s="1">
         <v>95.428899370436028</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="25" ht="14.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>705</v>
       </c>
       <c r="B25" s="1">
         <v>92.607607521641228</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>813.75</v>
       </c>
       <c r="B26" s="1">
         <v>88.676559580359537</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>922.5</v>
       </c>
       <c r="B27" s="1">
         <v>83.635755546590971</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="28" ht="14.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1031.25</v>
       </c>
       <c r="B28" s="1">
         <v>77.485195420335529</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="29" ht="14.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1140</v>
       </c>
       <c r="B29" s="1">
         <v>70.224879201593211</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" ht="14.25">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>240</v>
       </c>
       <c r="B31" s="1">
         <v>76.766245904208475</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="32" ht="14.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>335</v>
       </c>
       <c r="B32" s="1">
         <v>78.099932831783264</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="33" ht="14.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>430</v>
       </c>
       <c r="B33" s="1">
         <v>78.26374558239408</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="34" ht="14.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>525</v>
       </c>
       <c r="B34" s="1">
         <v>77.257684156040895</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="35" ht="14.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>620</v>
       </c>
       <c r="B35" s="1">
         <v>75.081748552723724</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="36" ht="14.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>715</v>
       </c>
       <c r="B36" s="1">
         <v>71.735938772442566</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="37" ht="14.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>810</v>
       </c>
       <c r="B37" s="1">
         <v>67.220254815197421</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="38" ht="14.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>905</v>
       </c>
       <c r="B38" s="1">
         <v>61.534696680988276</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="1">
         <v>181</v>
       </c>
     </row>
-    <row r="39" ht="14.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1000</v>
       </c>
       <c r="B39" s="1">
         <v>54.679264369815144</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
-    </row>
-    <row r="41" ht="14.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>200</v>
       </c>
       <c r="B41" s="1">
         <v>56.928463295806537</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="42" ht="14.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>283.75</v>
       </c>
       <c r="B42" s="1">
         <v>57.851760627545474</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="43" ht="14.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>367.5</v>
       </c>
       <c r="B43" s="1">
         <v>57.964375264073439</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="44" ht="14.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>451.25</v>
       </c>
       <c r="B44" s="1">
         <v>57.266307205390405</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="45" ht="14.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>535</v>
       </c>
       <c r="B45" s="1">
         <v>55.757556451496399</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="46" ht="14.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>618.75</v>
       </c>
       <c r="B46" s="1">
         <v>53.438123002391421</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="47" ht="14.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>702.5</v>
       </c>
       <c r="B47" s="1">
         <v>50.308006858075466</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="48" ht="14.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>786.25</v>
       </c>
       <c r="B48" s="1">
         <v>46.367208018548524</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="49" ht="14.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>870</v>
       </c>
       <c r="B49" s="1">
         <v>41.615726483810597</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-    </row>
-    <row r="51" ht="14.25">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>160</v>
       </c>
       <c r="B51" s="1">
         <v>43.794389340743166</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="52" ht="14.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>233.75</v>
       </c>
       <c r="B52" s="1">
         <v>43.816660018555432</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="53" ht="14.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>307.5</v>
       </c>
       <c r="B53" s="1">
         <v>43.399328827449068</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="54" ht="14.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>381.25</v>
       </c>
       <c r="B54" s="1">
         <v>42.542395767424068</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="55" ht="14.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>455</v>
       </c>
       <c r="B55" s="1">
         <v>41.245860838480432</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="56" ht="14.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>528.75</v>
       </c>
       <c r="B56" s="1">
         <v>39.509724040618153</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="57" ht="14.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>602.5</v>
       </c>
       <c r="B57" s="1">
         <v>37.333985373837244</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="58" ht="14.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>676.25</v>
       </c>
       <c r="B58" s="1">
         <v>34.718644838137699</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="59" ht="14.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>750</v>
       </c>
       <c r="B59" s="1">
         <v>31.663702433519521</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-    </row>
-    <row r="61" ht="14.25">
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>140</v>
       </c>
       <c r="B61" s="1">
         <v>30.13663723622134</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="62" ht="14.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>200</v>
       </c>
       <c r="B62" s="1">
         <v>29.694031459502792</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="63" ht="14.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>260</v>
       </c>
       <c r="B63" s="1">
         <v>29.088739222239496</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="64" ht="14.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>320</v>
       </c>
       <c r="B64" s="1">
         <v>28.320760524431446</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="65" ht="14.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>380</v>
       </c>
       <c r="B65" s="1">
         <v>27.390095366078647</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="66" ht="14.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>440</v>
       </c>
       <c r="B66" s="1">
         <v>26.296743747181093</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="67" ht="14.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>500</v>
       </c>
       <c r="B67" s="1">
         <v>25.040705667738791</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="68" ht="14.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>560</v>
       </c>
       <c r="B68" s="1">
         <v>23.621981127751738</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="69" ht="14.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>620</v>
       </c>
       <c r="B69" s="1">
         <v>22.040570127219929</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="1">
         <v>45</v>
       </c>
     </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>150</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>175</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>205</v>
+      </c>
+      <c r="B73" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>235</v>
+      </c>
+      <c r="B74" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>260</v>
+      </c>
+      <c r="B75" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>196</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>240</v>
+      </c>
+      <c r="B78" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>276</v>
+      </c>
+      <c r="B79" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>317</v>
+      </c>
+      <c r="B80" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>356</v>
+      </c>
+      <c r="B81" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>260</v>
+      </c>
+      <c r="B83" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>314</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>368</v>
+      </c>
+      <c r="B85" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>418</v>
+      </c>
+      <c r="B86" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>470</v>
+      </c>
+      <c r="B87" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>333</v>
+      </c>
+      <c r="B89" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>397</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>465</v>
+      </c>
+      <c r="B91" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>532</v>
+      </c>
+      <c r="B92" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>600</v>
+      </c>
+      <c r="B93" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>388</v>
+      </c>
+      <c r="B95" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>460</v>
+      </c>
+      <c r="B96" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>537</v>
+      </c>
+      <c r="B97" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>619</v>
+      </c>
+      <c r="B98" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>695</v>
+      </c>
+      <c r="B99" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>424</v>
+      </c>
+      <c r="B101" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>504</v>
+      </c>
+      <c r="B102" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>594</v>
+      </c>
+      <c r="B103" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>678</v>
+      </c>
+      <c r="B104" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>762</v>
+      </c>
+      <c r="B105" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>483</v>
+      </c>
+      <c r="B107" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>577</v>
+      </c>
+      <c r="B108" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>674</v>
+      </c>
+      <c r="B109" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>772</v>
+      </c>
+      <c r="B110" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>864</v>
+      </c>
+      <c r="B111" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>560</v>
+      </c>
+      <c r="B113" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>668</v>
+      </c>
+      <c r="B114" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>782</v>
+      </c>
+      <c r="B115" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>893</v>
+      </c>
+      <c r="B116" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B117" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>602</v>
+      </c>
+      <c r="B119" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>719</v>
+      </c>
+      <c r="B120" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>841</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>960</v>
+      </c>
+      <c r="B122" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1082</v>
+      </c>
+      <c r="B123" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>627</v>
+      </c>
+      <c r="B125" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>745</v>
+      </c>
+      <c r="B126" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>875</v>
+      </c>
+      <c r="B127" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B128" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>1127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>